--- a/Client/Luban/Config/Datas/__tables__.xlsx
+++ b/Client/Luban/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Demo\SimpleFM\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A1546-AECD-4EA1-AD0A-E3E292D0C317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65965DF9-2171-49F0-9A58-005E47023C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>demo.TbEquip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TbLanguage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,6 +636,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Luban/Config/Datas/__tables__.xlsx
+++ b/Client/Luban/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Demo\SimpleFM\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65965DF9-2171-49F0-9A58-005E47023C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D857F1-7167-4AA7-8258-F10E82272F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34425" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -64,87 +64,100 @@
     <t>##</t>
   </si>
   <si>
+    <t>记录类名</t>
+  </si>
+  <si>
+    <t>从excel读取定义</t>
+  </si>
+  <si>
+    <t>文件列表</t>
+  </si>
+  <si>
+    <t>表id字段</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>分支文件列表</t>
+  </si>
+  <si>
+    <t>输出文件名</t>
+  </si>
+  <si>
+    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
+  </si>
+  <si>
+    <t>可以多个，以逗号','分隔</t>
+  </si>
+  <si>
+    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+  </si>
+  <si>
+    <t>取值one|map|list，为空自动为map</t>
+  </si>
+  <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+  </si>
+  <si>
+    <t>用于本地化。可以多个，以逗号分隔</t>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>item.TbItem</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>item.xlsx</t>
+  </si>
+  <si>
+    <t>Equip.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TbEquip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TbLanguage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>记录类名</t>
-  </si>
-  <si>
-    <t>从excel读取定义</t>
-  </si>
-  <si>
-    <t>文件列表</t>
-  </si>
-  <si>
-    <t>表id字段</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
-    <t>输出文件名</t>
-  </si>
-  <si>
-    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-  </si>
-  <si>
-    <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
-  </si>
-  <si>
-    <t>Equip.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.TbEquip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.TbLanguage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TbHero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,34 +565,34 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -587,67 +600,81 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
